--- a/OPLA POLA Media analysis.xlsx
+++ b/OPLA POLA Media analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/OPLA-vs-POLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{271A76E6-9CC1-453D-A2A9-8C6967E73F3C}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DB6B99-37F6-4487-A2C8-CD8E57CAF866}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 2+3 formulae" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,6 @@
     <t>Media 3-OHB (umol/g of protein)</t>
   </si>
   <si>
-    <t>800uL OPLA</t>
-  </si>
-  <si>
-    <t>800uL POLA</t>
-  </si>
-  <si>
     <t>Media TAG (umol/g of protein)</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>Media ApoB (mg/mg of protein)</t>
+  </si>
+  <si>
+    <t>800uM OPLA</t>
+  </si>
+  <si>
+    <t>800uM POLA</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA62F4B2-6967-432A-AE7C-DD65BD6196AF}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -2210,22 +2210,22 @@
         <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>25</v>
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>800</v>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>800</v>
@@ -2427,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>800</v>
@@ -2476,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>800</v>
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>800</v>
@@ -2619,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>800</v>
@@ -2713,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>800</v>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>800</v>
@@ -2856,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -2905,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>800</v>
@@ -2999,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>800</v>
@@ -3048,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>800</v>
@@ -3142,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>800</v>
@@ -3191,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>800</v>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -3334,7 +3334,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>800</v>
@@ -3428,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>800</v>
@@ -3477,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>800</v>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CE3E6E-1AE1-41B4-AE67-A0FDBE3CC47E}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -3567,22 +3567,22 @@
         <v>26</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
       </c>
       <c r="O1" t="s">
         <v>25</v>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>800</v>
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>800</v>
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>800</v>
@@ -3825,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>800</v>
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>800</v>
@@ -3963,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>800</v>
@@ -4054,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>800</v>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>800</v>
@@ -4192,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>800</v>
@@ -4330,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>800</v>
@@ -4377,7 +4377,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>800</v>
@@ -4468,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>800</v>
@@ -4515,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>800</v>
@@ -4606,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -4653,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>800</v>
@@ -4744,7 +4744,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>800</v>
@@ -4791,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>800</v>
